--- a/exp_vyhodnoceni/data.xlsx
+++ b/exp_vyhodnoceni/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\VUT\3_zimni\ial\sem_proj\exp_vyhodnoceni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96040C47-D858-4A4B-99AD-844485AD565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89BC15-E039-4963-8B2E-4CE5490ABEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9360,6 +9360,7 @@
       <c:valAx>
         <c:axId val="391116480"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
